--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -732,8 +732,8 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>13.0</v>
+      <c r="A3" s="3">
+        <v>2.0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -800,8 +800,8 @@
       </c>
     </row>
     <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="2">
-        <v>9.0</v>
+      <c r="A5" s="3">
+        <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -868,8 +868,8 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>3.0</v>
+      <c r="A7" s="3">
+        <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>43</v>
@@ -936,8 +936,8 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
-        <v>11.0</v>
+      <c r="A9" s="3">
+        <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>53</v>
@@ -1004,8 +1004,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
-        <v>4.0</v>
+      <c r="A11" s="3">
+        <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>59</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>63</v>
@@ -1088,8 +1088,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
-        <v>14.0</v>
+      <c r="A13" s="3">
+        <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>68</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>73</v>
@@ -1156,8 +1156,8 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2">
-        <v>5.0</v>
+      <c r="A15" s="3">
+        <v>14.0</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>78</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>83</v>
